--- a/results/nvos.xlsx
+++ b/results/nvos.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worleyparsons-my.sharepoint.com/personal/akintunde_adegbayo_worley_com/Documents/Downloads/app.files/github.files/qflTradeBot/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_078CA4280443068E6E38F4F7495DCE3AE7C99F35" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68785D3B-6C57-40F7-9007-1A6D851923A0}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_5261154D64D7AB48AE4C44C6E53BE8F4588A2FDA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E796A7-69CD-42D7-B68A-7E7521B3E361}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="20230116" sheetId="1" r:id="rId1"/>
+    <sheet name="20230118" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="37">
-  <si>
-    <t>Datetime</t>
-  </si>
   <si>
     <t>Open</t>
   </si>
@@ -97,7 +94,10 @@
     <t>cash</t>
   </si>
   <si>
-    <t>portfolio</t>
+    <t>portfolio_value</t>
+  </si>
+  <si>
+    <t>Datetime</t>
   </si>
   <si>
     <t>12.54M</t>
@@ -138,7 +138,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -151,21 +151,18 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -195,15 +192,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,9 +292,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +344,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,82 +552,82 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -663,7 +695,7 @@
         <v>1000</v>
       </c>
       <c r="Z2">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -739,8 +771,8 @@
       <c r="Y3">
         <v>1000</v>
       </c>
-      <c r="Z3" s="3">
-        <v>1000</v>
+      <c r="Z3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -819,7 +851,7 @@
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4">
         <v>1000.399906434287</v>
       </c>
     </row>
@@ -896,7 +928,7 @@
       <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5">
         <v>1000.399906434287</v>
       </c>
     </row>
@@ -973,8 +1005,8 @@
       <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Z6" s="3">
-        <v>1001.20353247506</v>
+      <c r="Z6">
+        <v>1000.399906434287</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1050,8 +1082,8 @@
       <c r="Y7">
         <v>0</v>
       </c>
-      <c r="Z7" s="3">
-        <v>1021.9912790368591</v>
+      <c r="Z7">
+        <v>1000.399906434287</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1125,12 +1157,12 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X8">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
+        <v>1021.987227541399</v>
+      </c>
+      <c r="Z8">
         <v>1021.987227541399</v>
       </c>
     </row>
@@ -1205,13 +1237,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X9">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>1021.9912790368591</v>
+        <v>1021.987227541399</v>
+      </c>
+      <c r="Z9">
+        <v>1021.987227541399</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1285,13 +1317,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X10">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>1021.991257492436</v>
+        <v>1021.987227541399</v>
+      </c>
+      <c r="Z10">
+        <v>1021.987227541399</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1365,13 +1397,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X11">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>1021.5914174073459</v>
+        <v>1021.987227541399</v>
+      </c>
+      <c r="Z11">
+        <v>1021.987227541399</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -1445,13 +1477,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X12">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>1021.991257492436</v>
+        <v>1021.987227541399</v>
+      </c>
+      <c r="Z12">
+        <v>1021.987227541399</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -1525,13 +1557,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X13">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>1021.991257492436</v>
+        <v>1021.987227541399</v>
+      </c>
+      <c r="Z13">
+        <v>1021.987227541399</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -1605,13 +1637,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X14">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>1021.991257492436</v>
+        <v>1021.987227541399</v>
+      </c>
+      <c r="Z14">
+        <v>1021.987227541399</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -1682,13 +1714,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X15">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>1021.9912790368591</v>
+        <v>1021.987227541399</v>
+      </c>
+      <c r="Z15">
+        <v>1021.987227541399</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -1759,13 +1791,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X16">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>1021.9912790368591</v>
+        <v>1021.987227541399</v>
+      </c>
+      <c r="Z16">
+        <v>1021.987227541399</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -1836,13 +1868,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X17">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1021.9912790368591</v>
+        <v>1021.987227541399</v>
+      </c>
+      <c r="Z17">
+        <v>1021.987227541399</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -1916,13 +1948,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X18">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1021.9912790368591</v>
+        <v>1021.987227541399</v>
+      </c>
+      <c r="Z18">
+        <v>1021.987227541399</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -1996,13 +2028,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X19">
-        <v>3998.400850909376</v>
+        <v>4086.3146002200428</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
-      <c r="Z19" s="3">
-        <v>1005.197949514315</v>
+      <c r="Z19">
+        <v>1027.2994655544339</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -2076,13 +2108,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X20">
-        <v>3998.400850909376</v>
+        <v>4086.3146002200428</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
-      <c r="Z20" s="3">
-        <v>1011.195592735573</v>
+      <c r="Z20">
+        <v>1033.4289803219101</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -2153,13 +2185,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X21">
-        <v>3998.400850909376</v>
+        <v>4086.3146002200428</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
-      <c r="Z21" s="3">
-        <v>1021.987227541399</v>
+      <c r="Z21">
+        <v>1033.4289803219101</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -2230,13 +2262,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X22">
-        <v>3998.400850909376</v>
+        <v>4086.3146002200428</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1000.000052812435</v>
+        <v>1033.4289803219101</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -2310,13 +2342,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X23">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z23">
-        <v>1021.991257492436</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2390,13 +2422,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X24">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z24">
-        <v>1079.5682297455321</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -2467,13 +2499,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X25">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z25">
-        <v>1127.5490609288911</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -2544,13 +2576,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X26">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z26">
-        <v>976.61339784267398</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -2624,13 +2656,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X27">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z27">
-        <v>966.41346011654241</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -2704,13 +2736,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X28">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z28">
-        <v>984.80611747215755</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -2784,13 +2816,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X29">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z29">
-        <v>985.60581117910078</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -2864,13 +2896,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X30">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z30">
-        <v>982.00724907867209</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -2944,13 +2976,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X31">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z31">
-        <v>1044.3823453463749</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -3024,13 +3056,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X32">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z32">
-        <v>1020.7917372371641</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -3104,13 +3136,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X33">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z33">
-        <v>1059.5762254909851</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -3184,13 +3216,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X34">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z34">
-        <v>1059.5762254909851</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -3264,13 +3296,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X35">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z35">
-        <v>1058.7765453208031</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
@@ -3344,13 +3376,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X36">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z36">
-        <v>1113.15479689317</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
@@ -3424,13 +3456,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X37">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z37">
-        <v>1087.565090551519</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -3504,13 +3536,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X38">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z38">
-        <v>999.600212727344</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
@@ -3584,13 +3616,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X39">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z39">
-        <v>980.8077085182573</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -3664,13 +3696,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X40">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z40">
-        <v>974.41027802434303</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
@@ -3744,13 +3776,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X41">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z41">
-        <v>959.61618276915658</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -3821,13 +3853,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X42">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>1044.4620118162429</v>
       </c>
       <c r="Z42">
-        <v>958.81654864302902</v>
+        <v>1044.4620118162429</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
@@ -3901,13 +3933,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X43">
-        <v>3998.400850909376</v>
+        <v>4541.1390994310186</v>
       </c>
       <c r="Y43">
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>924.03040861834108</v>
+        <v>1049.4572140473661</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -3981,13 +4013,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X44">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z44">
-        <v>965.61380549461433</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -4058,13 +4090,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X45">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z45">
-        <v>886.84530873169956</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
@@ -4138,13 +4170,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X46">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z46">
-        <v>960.01602962262825</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
@@ -4218,13 +4250,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X47">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z47">
-        <v>959.61618276915658</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
@@ -4295,13 +4327,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X48">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z48">
-        <v>919.63221239178483</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
@@ -4372,13 +4404,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X49">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z49">
-        <v>879.64818243359753</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
@@ -4449,13 +4481,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X50">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z50">
-        <v>869.65218983925456</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
@@ -4526,13 +4558,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X51">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z51">
-        <v>849.25636588245209</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
@@ -4603,13 +4635,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X52">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z52">
-        <v>849.66020465056863</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
@@ -4680,13 +4712,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X53">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z53">
-        <v>849.66018081824234</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
@@ -4760,13 +4792,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X54">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z54">
-        <v>859.65618294551587</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
@@ -4840,13 +4872,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X55">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z55">
-        <v>944.41830832666926</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
@@ -4920,13 +4952,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X56">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z56">
-        <v>879.64818243359753</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
@@ -5000,13 +5032,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X57">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z57">
-        <v>879.64818243359753</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
@@ -5080,13 +5112,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X58">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z58">
-        <v>880.04802928706908</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
@@ -5157,13 +5189,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X59">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z59">
-        <v>879.64818243359753</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
@@ -5234,13 +5266,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X60">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z60">
-        <v>877.24916089358351</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
@@ -5314,13 +5346,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X61">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z61">
-        <v>878.8484887266543</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -5394,13 +5426,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X62">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>1096.6850925125909</v>
       </c>
       <c r="Z62">
-        <v>879.64818720006269</v>
+        <v>1096.6850925125909</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
@@ -5474,13 +5506,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X63">
-        <v>3998.400850909376</v>
+        <v>5222.3101273939265</v>
       </c>
       <c r="Y63">
         <v>0</v>
       </c>
       <c r="Z63">
-        <v>928.78853255191905</v>
+        <v>1213.090418048024</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
@@ -5551,13 +5583,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X64">
-        <v>3998.400850909376</v>
+        <v>5222.3101273939265</v>
       </c>
       <c r="Y64">
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>868.05280242536821</v>
+        <v>1213.090418048024</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
@@ -5628,13 +5660,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X65">
-        <v>3998.400850909376</v>
+        <v>5222.3101273939265</v>
       </c>
       <c r="Y65">
         <v>0</v>
       </c>
       <c r="Z65">
-        <v>852.45907304405421</v>
+        <v>1213.090418048024</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
@@ -5705,13 +5737,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X66">
-        <v>3998.400850909376</v>
+        <v>5222.3101273939265</v>
       </c>
       <c r="Y66">
         <v>0</v>
       </c>
       <c r="Z66">
-        <v>843.06282093951086</v>
+        <v>1213.090418048024</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
@@ -5782,13 +5814,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X67">
-        <v>3998.400850909376</v>
+        <v>5222.3101273939265</v>
       </c>
       <c r="Y67">
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>854.05840087712488</v>
+        <v>1213.090418048024</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
@@ -5862,13 +5894,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X68">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z68">
-        <v>879.64818243359753</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
@@ -5942,13 +5974,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X69">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z69">
-        <v>879.64818720006269</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
@@ -6022,13 +6054,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X70">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z70">
-        <v>879.64818720006269</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
@@ -6102,13 +6134,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X71">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z71">
-        <v>871.85130554078944</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
@@ -6182,13 +6214,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X72">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z72">
-        <v>938.82450387352753</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
@@ -6262,13 +6294,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X73">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y73">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z73">
-        <v>943.22275968089946</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
@@ -6342,13 +6374,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X74">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z74">
-        <v>1039.584183104716</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
@@ -6422,13 +6454,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X75">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z75">
-        <v>880.0440373724241</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
@@ -6502,13 +6534,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X76">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z76">
-        <v>880.04802928706908</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
@@ -6582,13 +6614,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X77">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z77">
-        <v>891.6434092952984</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
@@ -6662,13 +6694,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X78">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y78">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z78">
-        <v>879.84813565074103</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
@@ -6742,13 +6774,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X79">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y79">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z79">
-        <v>913.23475434770148</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
@@ -6822,13 +6854,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X80">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y80">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z80">
-        <v>999.600212727344</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
@@ -6902,13 +6934,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X81">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z81">
-        <v>896.46546344401179</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
@@ -6979,13 +7011,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X82">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y82">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z82">
-        <v>860.05604409838315</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
@@ -7059,13 +7091,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X83">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z83">
-        <v>839.66415247541011</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
@@ -7139,13 +7171,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X84">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y84">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z84">
-        <v>885.24591922056857</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
@@ -7219,13 +7251,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X85">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y85">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z85">
-        <v>865.65378088535419</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
@@ -7299,13 +7331,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X86">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z86">
-        <v>887.64500034139803</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
@@ -7379,13 +7411,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X87">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z87">
-        <v>879.64818720006269</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
@@ -7459,13 +7491,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X88">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z88">
-        <v>879.64818720006269</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
@@ -7539,13 +7571,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X89">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y89">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z89">
-        <v>835.6657778400596</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
@@ -7619,13 +7651,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X90">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y90">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z90">
-        <v>938.82450387352753</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
@@ -7699,13 +7731,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X91">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y91">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z91">
-        <v>908.43667923702708</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
@@ -7779,13 +7811,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X92">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y92">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z92">
-        <v>883.04685089769816</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
@@ -7859,13 +7891,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X93">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y93">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z93">
-        <v>896.44145237532621</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
@@ -7939,13 +7971,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X94">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y94">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z94">
-        <v>895.64181824919865</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
@@ -8019,13 +8051,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X95">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y95">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z95">
-        <v>909.63621979744187</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
@@ -8099,13 +8131,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X96">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y96">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z96">
-        <v>909.63621979744187</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
@@ -8179,13 +8211,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X97">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y97">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z97">
-        <v>902.43907205024618</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
@@ -8259,13 +8291,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X98">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y98">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z98">
-        <v>879.64818720006269</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
@@ -8339,13 +8371,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X99">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y99">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z99">
-        <v>935.6257886265704</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
@@ -8419,13 +8451,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X100">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y100">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z100">
-        <v>900.0400144757549</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
@@ -8499,13 +8531,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X101">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y101">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z101">
-        <v>880.04802928706908</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
@@ -8579,13 +8611,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X102">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y102">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z102">
-        <v>919.62822047713985</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
@@ -8659,13 +8691,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X103">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y103">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z103">
-        <v>888.24474083119765</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
@@ -8739,13 +8771,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X104">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y104">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z104">
-        <v>888.44469404834126</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
@@ -8819,13 +8851,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X105">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y105">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z105">
-        <v>919.63221239178483</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
@@ -8899,13 +8931,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X106">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y106">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z106">
-        <v>914.83411468806526</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
@@ -8979,13 +9011,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X107">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y107">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z107">
-        <v>920.03203579424746</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
@@ -9059,13 +9091,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X108">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y108">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z108">
-        <v>935.62579911279408</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
@@ -9139,13 +9171,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X109">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y109">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z109">
-        <v>999.600212727344</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
@@ -9219,13 +9251,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X110">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y110">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z110">
-        <v>916.83334399829937</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
@@ -9299,13 +9331,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X111">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z111">
-        <v>890.44386873488361</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
@@ -9379,13 +9411,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X112">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y112">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z112">
-        <v>890.84371558835517</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
@@ -9459,13 +9491,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X113">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y113">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z113">
-        <v>919.63221239178483</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
@@ -9539,13 +9571,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X114">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z114">
-        <v>932.82692023308493</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
@@ -9619,13 +9651,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X115">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z115">
-        <v>959.61618276915658</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
@@ -9699,13 +9731,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X116">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y116">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z116">
-        <v>959.61620421825023</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
@@ -9779,13 +9811,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X117">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z117">
-        <v>959.61620421825023</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
@@ -9859,13 +9891,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X118">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y118">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z118">
-        <v>1007.597014429163</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
@@ -9939,13 +9971,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X119">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y119">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z119">
-        <v>959.61618276915658</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
@@ -10019,13 +10051,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X120">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y120">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z120">
-        <v>913.03482868072706</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
@@ -10099,13 +10131,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X121">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z121">
-        <v>907.63698553008396</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
@@ -10179,13 +10211,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X122">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z122">
-        <v>891.84330293162634</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
@@ -10259,13 +10291,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X123">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y123">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z123">
-        <v>887.64500034139803</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
@@ -10339,13 +10371,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X124">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y124">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z124">
-        <v>860.85567822451071</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
@@ -10419,13 +10451,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X125">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y125">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z125">
-        <v>959.61620421825023</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
@@ -10499,13 +10531,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X126">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y126">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z126">
-        <v>880.8477229940122</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
@@ -10579,13 +10611,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X127">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y127">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z127">
-        <v>871.65136452579691</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
@@ -10659,13 +10691,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X128">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y128">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z128">
-        <v>879.64818243359753</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
@@ -10739,13 +10771,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X129">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y129">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z129">
-        <v>858.66060181628541</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
@@ -10819,13 +10851,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X130">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z130">
-        <v>867.24911680378</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
@@ -10899,13 +10931,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X131">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y131">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z131">
-        <v>864.05445305228352</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
@@ -10979,13 +11011,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X132">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z132">
-        <v>863.65460619881185</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
@@ -11059,13 +11091,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X133">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z133">
-        <v>881.64738762551747</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
@@ -11139,13 +11171,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X134">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y134">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z134">
-        <v>925.62979698552056</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
@@ -11219,13 +11251,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X135">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z135">
-        <v>919.63221239178483</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
@@ -11299,13 +11331,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X136">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z136">
-        <v>901.63940188964136</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
@@ -11379,13 +11411,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X137">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z137">
-        <v>880.04802928706908</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
@@ -11459,13 +11491,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X138">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z138">
-        <v>880.8477229940122</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
@@ -11539,13 +11571,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X139">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z139">
-        <v>890.84371558835517</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
@@ -11619,13 +11651,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X140">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y140">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z140">
-        <v>899.64016762228334</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
@@ -11699,13 +11731,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X141">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y141">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z141">
-        <v>899.64016762228334</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
@@ -11779,13 +11811,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X142">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y142">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z142">
-        <v>888.44466907206333</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
@@ -11859,13 +11891,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X143">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y143">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z143">
-        <v>888.44466907206333</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
@@ -11939,13 +11971,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X144">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y144">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z144">
-        <v>932.82691851715742</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
@@ -12016,13 +12048,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X145">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y145">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z145">
-        <v>959.61618276915658</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
@@ -12096,13 +12128,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X146">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y146">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z146">
-        <v>803.67859105193861</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
@@ -12173,13 +12205,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X147">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y147">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z147">
-        <v>798.48064153762357</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
@@ -12253,13 +12285,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X148">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y148">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z148">
-        <v>803.67859105193861</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
@@ -12333,13 +12365,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X149">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y149">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z149">
-        <v>802.47905049152382</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
@@ -12413,13 +12445,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X150">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z150">
-        <v>803.67859105193861</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
@@ -12490,13 +12522,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X151">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y151">
-        <v>0</v>
+        <v>1148.9082218011849</v>
       </c>
       <c r="Z151">
-        <v>789.68416805460174</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
@@ -12570,13 +12602,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X152">
-        <v>3998.400850909376</v>
+        <v>5817.2568192465042</v>
       </c>
       <c r="Y152">
         <v>0</v>
       </c>
       <c r="Z152">
-        <v>789.68416805460174</v>
+        <v>1148.9082218011849</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
@@ -12650,13 +12682,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X153">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y153">
-        <v>0</v>
+        <v>1279.7964932995201</v>
       </c>
       <c r="Z153">
-        <v>879.64818243359753</v>
+        <v>1279.7964932995201</v>
       </c>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
@@ -12730,13 +12762,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X154">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y154">
-        <v>0</v>
+        <v>1279.7964932995201</v>
       </c>
       <c r="Z154">
-        <v>816.47345203976704</v>
+        <v>1279.7964932995201</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
@@ -12810,13 +12842,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X155">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y155">
-        <v>0</v>
+        <v>1279.7964932995201</v>
       </c>
       <c r="Z155">
-        <v>801.6793567845807</v>
+        <v>1279.7964932995201</v>
       </c>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
@@ -12890,13 +12922,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X156">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>1279.7964932995201</v>
       </c>
       <c r="Z156">
-        <v>800.08002895150992</v>
+        <v>1279.7964932995201</v>
       </c>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
@@ -12970,13 +13002,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X157">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>1279.7964932995201</v>
       </c>
       <c r="Z157">
-        <v>799.8800757343663</v>
+        <v>1279.7964932995201</v>
       </c>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
@@ -13050,13 +13082,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X158">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y158">
-        <v>0</v>
+        <v>1279.7964932995201</v>
       </c>
       <c r="Z158">
-        <v>803.67859105193861</v>
+        <v>1279.7964932995201</v>
       </c>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
@@ -13130,13 +13162,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X159">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y159">
-        <v>0</v>
+        <v>1279.7964932995201</v>
       </c>
       <c r="Z159">
-        <v>810.07602154585288</v>
+        <v>1279.7964932995201</v>
       </c>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
@@ -13210,13 +13242,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X160">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y160">
-        <v>0</v>
+        <v>1279.7964932995201</v>
       </c>
       <c r="Z160">
-        <v>803.27873094769359</v>
+        <v>1279.7964932995201</v>
       </c>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
@@ -13290,13 +13322,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X161">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y161">
-        <v>0</v>
+        <v>1279.7964932995201</v>
       </c>
       <c r="Z161">
-        <v>839.66417869096892</v>
+        <v>1279.7964932995201</v>
       </c>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
@@ -13370,13 +13402,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X162">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y162">
-        <v>0</v>
+        <v>1279.7964932995201</v>
       </c>
       <c r="Z162">
-        <v>850.45983877669619</v>
+        <v>1279.7964932995201</v>
       </c>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
@@ -13447,13 +13479,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X163">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y163">
-        <v>0</v>
+        <v>1279.7964932995201</v>
       </c>
       <c r="Z163">
-        <v>800.87966307763747</v>
+        <v>1279.7964932995201</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
@@ -13524,13 +13556,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X164">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y164">
-        <v>0</v>
+        <v>1279.7964932995201</v>
       </c>
       <c r="Z164">
-        <v>799.28033524456669</v>
+        <v>1279.7964932995201</v>
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
@@ -13604,13 +13636,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X165">
-        <v>3998.400850909376</v>
+        <v>6563.0591807291157</v>
       </c>
       <c r="Y165">
         <v>0</v>
       </c>
       <c r="Z165">
-        <v>798.08079468415201</v>
+        <v>1309.9865875939231</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
@@ -13684,13 +13716,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X166">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y166">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z166">
-        <v>796.08161999760966</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
@@ -13764,13 +13796,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X167">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y167">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z167">
-        <v>792.28310468003735</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
@@ -13844,13 +13876,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X168">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y168">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z168">
-        <v>789.68418950369539</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
@@ -13924,13 +13956,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X169">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y169">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z169">
-        <v>789.68416805460174</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
@@ -14004,13 +14036,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X170">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z170">
-        <v>839.66417869096892</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
@@ -14084,13 +14116,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X171">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y171">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z171">
-        <v>839.66415247541011</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
@@ -14164,13 +14196,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X172">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y172">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z172">
-        <v>790.88367048329451</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
@@ -14244,13 +14276,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X173">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y173">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z173">
-        <v>790.08403635716695</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
@@ -14324,13 +14356,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X174">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y174">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z174">
-        <v>790.08403635716695</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
@@ -14404,13 +14436,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X175">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y175">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z175">
-        <v>790.08403635716695</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
@@ -14484,13 +14516,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X176">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y176">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z176">
-        <v>789.88408314002334</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.25">
@@ -14564,13 +14596,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X177">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y177">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z177">
-        <v>789.88408314002334</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.25">
@@ -14644,13 +14676,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X178">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y178">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z178">
-        <v>789.68416805460174</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
@@ -14724,13 +14756,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X179">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y179">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z179">
-        <v>847.79294188975814</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.25">
@@ -14804,13 +14836,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X180">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y180">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z180">
-        <v>790.08403635716695</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.25">
@@ -14884,13 +14916,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X181">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y181">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z181">
-        <v>790.28392999349501</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.25">
@@ -14964,13 +14996,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X182">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y182">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z182">
-        <v>798.48463345226855</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.25">
@@ -15044,13 +15076,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X183">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y183">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z183">
-        <v>798.88048839109513</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.25">
@@ -15124,13 +15156,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X184">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y184">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z184">
-        <v>801.47946314825265</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.25">
@@ -15204,13 +15236,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X185">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y185">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z185">
-        <v>801.6793567845807</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.25">
@@ -15284,13 +15316,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X186">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y186">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z186">
-        <v>799.68017018187527</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.25">
@@ -15364,13 +15396,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X187">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z187">
-        <v>803.67859105193861</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.25">
@@ -15444,13 +15476,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X188">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y188">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z188">
-        <v>839.66415247541011</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.25">
@@ -15524,13 +15556,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X189">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z189">
-        <v>804.07843790541017</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.25">
@@ -15604,13 +15636,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X190">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z190">
-        <v>821.87129519041014</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.25">
@@ -15684,13 +15716,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X191">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z191">
-        <v>821.67140155408219</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.25">
@@ -15764,13 +15796,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X192">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z192">
-        <v>821.67140155408219</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.25">
@@ -15844,13 +15876,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X193">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y193">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z193">
-        <v>804.47822517806617</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.25">
@@ -15924,13 +15956,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X194">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z194">
-        <v>839.66417869096892</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.25">
@@ -16004,13 +16036,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X195">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z195">
-        <v>958.01684387788657</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.25">
@@ -16084,13 +16116,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X196">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z196">
-        <v>959.61620421825023</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.25">
@@ -16164,13 +16196,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X197">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y197">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z197">
-        <v>1199.1204151877221</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.25">
@@ -16244,13 +16276,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X198">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y198">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z198">
-        <v>1864.0544766939511</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.25">
@@ -16324,13 +16356,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X199">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y199">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z199">
-        <v>1597.361139938296</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.25">
@@ -16404,13 +16436,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X200">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z200">
-        <v>1599.360340363751</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.25">
@@ -16484,13 +16516,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X201">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z201">
-        <v>1499.8001591761069</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.25">
@@ -16564,13 +16596,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X202">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y202">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z202">
-        <v>1384.6462146699171</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.25">
@@ -16644,13 +16676,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X203">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y203">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z203">
-        <v>1157.5370387119201</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.25">
@@ -16721,13 +16753,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X204">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y204">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z204">
-        <v>859.6561972449116</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.25">
@@ -16798,13 +16830,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X205">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y205">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z205">
-        <v>799.28033524456669</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.25">
@@ -16878,13 +16910,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X206">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y206">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z206">
-        <v>796.88131370455278</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.25">
@@ -16955,13 +16987,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X207">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y207">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z207">
-        <v>779.28835005588087</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.25">
@@ -17035,13 +17067,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X208">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y208">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z208">
-        <v>734.90606429032152</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.25">
@@ -17115,13 +17147,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X209">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z209">
-        <v>733.30673645725085</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
@@ -17195,13 +17227,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X210">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z210">
-        <v>799.68017018187527</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.25">
@@ -17275,13 +17307,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X211">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z211">
-        <v>791.68336848005652</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.25">
@@ -17355,13 +17387,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X212">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z212">
-        <v>787.68496762914708</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
@@ -17435,13 +17467,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X213">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y213">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z213">
-        <v>799.68017018187527</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.25">
@@ -17515,13 +17547,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X214">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y214">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z214">
-        <v>757.69696124732673</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.25">
@@ -17595,13 +17627,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X215">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y215">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z215">
-        <v>779.68816592732833</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
@@ -17675,13 +17707,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X216">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y216">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z216">
-        <v>779.68816592732833</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
@@ -17755,13 +17787,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X217">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y217">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z217">
-        <v>783.68656677823776</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
@@ -17835,13 +17867,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X218">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y218">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z218">
-        <v>771.69136422550957</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
@@ -17912,13 +17944,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X219">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z219">
-        <v>732.10719589683606</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
@@ -17992,13 +18024,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X220">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z220">
-        <v>699.32029013950614</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
@@ -18069,13 +18101,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X221">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y221">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z221">
-        <v>687.32512285862083</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
@@ -18146,13 +18178,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X222">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y222">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z222">
-        <v>679.72815180429177</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
@@ -18226,13 +18258,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X223">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y223">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z223">
-        <v>680.12799865776333</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
@@ -18306,13 +18338,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X224">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y224">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z224">
-        <v>701.71937126033561</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.25">
@@ -18383,13 +18415,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X225">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y225">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z225">
-        <v>704.91808650729274</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
@@ -18463,13 +18495,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X226">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z226">
-        <v>669.73214252732055</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
@@ -18540,13 +18572,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X227">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z227">
-        <v>663.73454125095645</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
@@ -18617,13 +18649,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X228">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z228">
-        <v>659.73614040004702</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
@@ -18697,13 +18729,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X229">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z229">
-        <v>719.71215316368762</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
@@ -18777,13 +18809,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X230">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z230">
-        <v>701.31950924950456</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
@@ -18857,13 +18889,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X231">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z231">
-        <v>691.32350712223115</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
@@ -18934,13 +18966,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X232">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z232">
-        <v>679.72814465459396</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
@@ -19011,13 +19043,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X233">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z233">
-        <v>679.72814465459396</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
@@ -19088,13 +19120,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X234">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y234">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z234">
-        <v>659.33630031495602</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
@@ -19165,13 +19197,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X235">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y235">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z235">
-        <v>659.73616661560595</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
@@ -19242,13 +19274,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X236">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y236">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z236">
-        <v>609.75614406307557</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
@@ -19319,13 +19351,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X237">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y237">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z237">
-        <v>592.56302726787521</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
@@ -19396,13 +19428,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X238">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y238">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z238">
-        <v>592.96287412134677</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
@@ -19476,13 +19508,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X239">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y239">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z239">
-        <v>609.75614406307557</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
@@ -19556,13 +19588,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X240">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y240">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z240">
-        <v>609.75614406307557</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
@@ -19636,13 +19668,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X241">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y241">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z241">
-        <v>607.3570629422461</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
@@ -19716,13 +19748,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X242">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y242">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z242">
-        <v>607.35708925313429</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
@@ -19796,13 +19828,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X243">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y243">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z243">
-        <v>627.748933592772</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
@@ -19876,13 +19908,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X244">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y244">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z244">
-        <v>623.75053274186268</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.25">
@@ -19956,13 +19988,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X245">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y245">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z245">
-        <v>618.55261163568048</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.25">
@@ -20033,13 +20065,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X246">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y246">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z246">
-        <v>645.74173742186429</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.25">
@@ -20113,13 +20145,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X247">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y247">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z247">
-        <v>609.35628967858895</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.25">
@@ -20193,13 +20225,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X248">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y248">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z248">
-        <v>599.76012763640642</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.25">
@@ -20273,13 +20305,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X249">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y249">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z249">
-        <v>599.76012763640642</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.25">
@@ -20353,13 +20385,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X250">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y250">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z250">
-        <v>599.76012763640642</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.25">
@@ -20430,13 +20462,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X251">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y251">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z251">
-        <v>629.7481292517615</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.25">
@@ -20510,13 +20542,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X252">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y252">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z252">
-        <v>617.74891047541553</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.25">
@@ -20590,13 +20622,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X253">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y253">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z253">
-        <v>631.7473635191194</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
@@ -20670,13 +20702,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X254">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y254">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z254">
-        <v>601.75932615527495</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.25">
@@ -20750,13 +20782,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X255">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y255">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z255">
-        <v>601.75932615527495</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.25">
@@ -20830,13 +20862,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X256">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y256">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z256">
-        <v>612.55501245656114</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
@@ -20910,13 +20942,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X257">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y257">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z257">
-        <v>611.35547189614635</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
@@ -20990,13 +21022,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X258">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y258">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z258">
-        <v>603.75852848731574</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.25">
@@ -21070,13 +21102,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X259">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y259">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z259">
-        <v>624.55021291204457</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.25">
@@ -21150,13 +21182,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X260">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y260">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z260">
-        <v>619.75213189095325</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.25">
@@ -21230,13 +21262,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X261">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y261">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z261">
-        <v>855.65778209460643</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.25">
@@ -21310,13 +21342,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X262">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y262">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z262">
-        <v>867.65298464733462</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.25">
@@ -21390,13 +21422,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X263">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y263">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z263">
-        <v>795.68176933096584</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.25">
@@ -21470,13 +21502,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X264">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y264">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z264">
-        <v>1119.1523981695341</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.25">
@@ -21550,13 +21582,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X265">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y265">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z265">
-        <v>1046.7813427680751</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.25">
@@ -21630,13 +21662,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X266">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y266">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z266">
-        <v>999.600212727344</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.25">
@@ -21710,13 +21742,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X267">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y267">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z267">
-        <v>1319.4723332312119</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.25">
@@ -21790,13 +21822,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X268">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y268">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z268">
-        <v>823.67057624062454</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.25">
@@ -21870,13 +21902,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X269">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y269">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z269">
-        <v>774.49024739503739</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.25">
@@ -21950,13 +21982,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X270">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y270">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z270">
-        <v>817.27314574671027</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.25">
@@ -22030,13 +22062,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X271">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y271">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z271">
-        <v>794.4822325837232</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.25">
@@ -22110,13 +22142,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X272">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y272">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z272">
-        <v>799.28033524456669</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.25">
@@ -22190,13 +22222,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X273">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y273">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z273">
-        <v>779.68813732853687</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.25">
@@ -22270,13 +22302,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X274">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y274">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z274">
-        <v>767.69296337460025</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.25">
@@ -22350,13 +22382,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X275">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y275">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z275">
-        <v>767.69296337460025</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.25">
@@ -22430,13 +22462,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X276">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y276">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z276">
-        <v>799.68017018187527</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.25">
@@ -22510,13 +22542,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X277">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y277">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z277">
-        <v>839.66417869096892</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.25">
@@ -22590,13 +22622,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X278">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y278">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z278">
-        <v>825.66977571278608</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.25">
@@ -22670,13 +22702,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X279">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y279">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z279">
-        <v>794.08240899060206</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.25">
@@ -22750,13 +22782,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X280">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y280">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z280">
-        <v>791.28352839496551</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.25">
@@ -22830,13 +22862,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X281">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y281">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z281">
-        <v>790.88368830987463</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.25">
@@ -22910,13 +22942,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X282">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y282">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z282">
-        <v>759.6961616727815</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.25">
@@ -22990,13 +23022,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X283">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y283">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z283">
-        <v>719.71218176247919</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.25">
@@ -23070,13 +23102,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X284">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y284">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z284">
-        <v>719.71218176247919</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.25">
@@ -23150,13 +23182,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X285">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y285">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z285">
-        <v>712.91484483427769</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.25">
@@ -23230,13 +23262,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X286">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y286">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z286">
-        <v>707.71695490077832</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.25">
@@ -23310,13 +23342,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X287">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y287">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z287">
-        <v>685.32588859126281</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.25">
@@ -23390,13 +23422,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X288">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y288">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z288">
-        <v>692.12316593864864</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.25">
@@ -23470,13 +23502,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X289">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y289">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z289">
-        <v>678.52861124387698</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.25">
@@ -23550,13 +23582,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X290">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y290">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z290">
-        <v>695.72174805823136</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.25">
@@ -23630,13 +23662,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X291">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y291">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z291">
-        <v>679.72814465459396</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.25">
@@ -23710,13 +23742,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X292">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y292">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z292">
-        <v>667.73294210186577</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.25">
@@ -23790,13 +23822,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X293">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y293">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z293">
-        <v>695.72174805823136</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.25">
@@ -23870,13 +23902,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X294">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y294">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z294">
-        <v>668.93246235713866</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.25">
@@ -23950,13 +23982,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X295">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y295">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z295">
-        <v>668.13278218695677</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.25">
@@ -24030,13 +24062,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X296">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y296">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z296">
-        <v>659.73614040004702</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.25">
@@ -24110,13 +24142,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X297">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y297">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z297">
-        <v>647.74093784731895</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.25">
@@ -24190,13 +24222,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X298">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y298">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z298">
-        <v>619.75213189095325</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.25">
@@ -24270,13 +24302,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X299">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y299">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z299">
-        <v>638.94442813916123</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.25">
@@ -24350,13 +24382,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X300">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y300">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z300">
-        <v>607.75690979571766</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.25">
@@ -24430,13 +24462,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X301">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y301">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z301">
-        <v>614.15439987044749</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.25">
@@ -24510,13 +24542,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X302">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y302">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z302">
-        <v>635.7457128922041</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.25">
@@ -24590,13 +24622,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X303">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y303">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z303">
-        <v>633.74653820566175</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.25">
@@ -24670,13 +24702,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X304">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y304">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z304">
-        <v>613.75455301697593</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.25">
@@ -24750,13 +24782,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X305">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y305">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z305">
-        <v>611.75531874961791</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.25">
@@ -24830,13 +24862,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X306">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y306">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z306">
-        <v>621.75133231640791</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.25">
@@ -24910,13 +24942,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X307">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y307">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z307">
-        <v>617.75293146549859</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.25">
@@ -24990,13 +25022,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X308">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y308">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z308">
-        <v>615.75373104004393</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.25">
@@ -25070,13 +25102,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X309">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y309">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z309">
-        <v>609.35628967858895</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.25">
@@ -25150,13 +25182,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X310">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y310">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z310">
-        <v>609.35628967858895</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.25">
@@ -25230,13 +25262,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X311">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y311">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z311">
-        <v>609.35628967858895</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.25">
@@ -25310,13 +25342,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X312">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y312">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z312">
-        <v>605.35788882767952</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.25">
@@ -25390,13 +25422,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X313">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y313">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z313">
-        <v>605.35788882767952</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.25">
@@ -25470,13 +25502,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X314">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y314">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z314">
-        <v>599.76012763640642</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.25">
@@ -25547,13 +25579,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X315">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y315">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z315">
-        <v>597.7609172013747</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.25">
@@ -25624,13 +25656,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X316">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y316">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z316">
-        <v>547.38104779537275</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.25">
@@ -25701,13 +25733,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X317">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y317">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z317">
-        <v>529.78808414670084</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.25">
@@ -25781,13 +25813,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X318">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y318">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z318">
-        <v>535.78572736795911</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.25">
@@ -25861,13 +25893,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X319">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y319">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z319">
-        <v>539.78413632185936</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.25">
@@ -25941,13 +25973,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X320">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y320">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z320">
-        <v>558.17673409665895</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.25">
@@ -26021,13 +26053,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X321">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y321">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z321">
-        <v>540.98361730145859</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.25">
@@ -26101,13 +26133,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X322">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y322">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z322">
-        <v>554.17835793603956</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.25">
@@ -26181,13 +26213,13 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X323">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y323">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z323">
-        <v>552.57899759567567</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.25">
@@ -26258,16 +26290,16 @@
         <v>0.29809999761581418</v>
       </c>
       <c r="X324">
-        <v>3998.400850909376</v>
+        <v>0</v>
       </c>
       <c r="Y324">
-        <v>0</v>
+        <v>1306.7051002519499</v>
       </c>
       <c r="Z324">
-        <v>551.7793174254939</v>
+        <v>1306.7051002519499</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>